--- a/Rich/fxcheck_201308.xlsx
+++ b/Rich/fxcheck_201308.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="9675" windowHeight="6705"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="9675" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="周(0812~0816)" sheetId="19" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="97">
   <si>
     <t>均线系统客观方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,19 @@
   <si>
     <t>以看多美元看空非美为主要思路。但目前非美均主要处于上升上升到区间上沿后的向下大幅回撤，动能较大。
 可以等待走出次要节奏后入场做空非美。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元处于上升趋势，以看多美元看空非美为主要思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBP和AUD与其它非美趋势出现分化，其它非美货币都处于下降趋势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前EUR已经走出次要节奏，CHF回撤力度稍大；JPY也有次要节奏，但回撤向下破了M55，需要注意进一步回撤的可能。
+EUR为首选货币，其它考虑CHF和JPY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,6 +725,33 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -721,23 +761,38 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -745,55 +800,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1099,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24:L24"/>
     </sheetView>
   </sheetViews>
@@ -1114,41 +1127,41 @@
       <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="39">
         <v>41500.993750000001</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="26"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1198,8 +1211,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="26"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1250,8 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1276,8 +1289,8 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
@@ -1325,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1377,8 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="26"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1403,8 +1416,8 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="26"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
@@ -1452,8 +1465,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,8 +1504,8 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1530,431 +1543,431 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="26"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="26"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="34" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="26"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="26"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="26"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="34" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="26"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="26"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="34" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="26"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="26"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="26"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="26"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="26"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="26"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="26"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="26"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="26"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="26"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="26"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="26"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="35"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="26"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="3" t="s">
         <v>48</v>
       </c>
@@ -1972,11 +1985,11 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="26"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="40"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -1988,11 +2001,11 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="26"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2004,71 +2017,71 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="29"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="26"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="39"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2086,11 +2099,11 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="26"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2102,11 +2115,11 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="26"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2118,546 +2131,554 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="29"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="35"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="37"/>
-      <c r="B58" s="36" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="37"/>
-      <c r="B59" s="36" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="22"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="37"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="17"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="37"/>
-      <c r="B61" s="36" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="37"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="17"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="37"/>
-      <c r="B63" s="36" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="22"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="17"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="37"/>
-      <c r="B64" s="36" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="17"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="17"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="17"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="16"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="19"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="22"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="19"/>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="19"/>
-      <c r="B71" s="17" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="19"/>
-      <c r="B73" s="17" t="s">
+      <c r="A73" s="30"/>
+      <c r="B73" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="22"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="17"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="19"/>
-      <c r="B74" s="17" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="17"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="19"/>
-      <c r="B75" s="17" t="s">
+      <c r="A75" s="30"/>
+      <c r="B75" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="22"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="19"/>
-      <c r="B76" s="17" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="22"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="17"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="19"/>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="30"/>
+      <c r="B78" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="22"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="17"/>
     </row>
     <row r="79" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="25" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A24:A37"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:L33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C35:L37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C45"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D43:L45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C52"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="D50:L52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L23"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D13:L15"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:L77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:L78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:L79"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:L74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:L75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:L76"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:L66"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:L57"/>
@@ -2674,51 +2695,43 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:L63"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:L64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:L65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:L66"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:L68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:L69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:L70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:L71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:L72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:L73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:L74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:L75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:L76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:L77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:L78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:L79"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L23"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D13:L15"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C52"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:L33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -2738,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2753,41 +2766,41 @@
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="39">
         <v>41500.993750000001</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="26"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2837,20 +2850,38 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="26"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6"/>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -2858,20 +2889,38 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -2879,8 +2928,8 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="7" t="s">
         <v>74</v>
       </c>
@@ -2928,20 +2977,38 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="6"/>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2949,20 +3016,38 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="26"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -2970,8 +3055,8 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="26"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="7" t="s">
         <v>75</v>
       </c>
@@ -3019,20 +3104,38 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6"/>
+      <c r="D10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -3040,20 +3143,38 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="6"/>
+      <c r="D11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -3061,425 +3182,431 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="26"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="26"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="26"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="26"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="26"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="26"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="26"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="26"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="26"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="26"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="26"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="26"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="26"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="26"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="26"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="35"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="26"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="3" t="s">
         <v>76</v>
       </c>
@@ -3497,11 +3624,11 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="26"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="40"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -3513,11 +3640,11 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3529,71 +3656,71 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="29"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="26"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="39"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="3" t="s">
         <v>76</v>
       </c>
@@ -3611,11 +3738,11 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="26"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3627,11 +3754,11 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="26"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3643,543 +3770,551 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="29"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="35"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="36" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A59" s="37"/>
-      <c r="B59" s="36" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="22"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A60" s="37"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="17"/>
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A61" s="37"/>
-      <c r="B61" s="36" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A62" s="37"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="17"/>
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A63" s="37"/>
-      <c r="B63" s="36" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="22"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="17"/>
     </row>
     <row r="64" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A64" s="37"/>
-      <c r="B64" s="36" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="17"/>
     </row>
     <row r="65" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="17"/>
     </row>
     <row r="66" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="17"/>
     </row>
     <row r="67" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="16"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="19"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="22"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="19"/>
-      <c r="B71" s="17" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="19"/>
-      <c r="B73" s="17" t="s">
+      <c r="A73" s="30"/>
+      <c r="B73" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="22"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="17"/>
     </row>
     <row r="74" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="17" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="17"/>
     </row>
     <row r="75" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="17" t="s">
+      <c r="A75" s="30"/>
+      <c r="B75" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="22"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="17" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="22"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="17"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="19"/>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="30"/>
+      <c r="B78" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="22"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="17"/>
     </row>
     <row r="79" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="25" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="38"/>
     </row>
     <row r="80" spans="1:12" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L23"/>
-    <mergeCell ref="A24:A37"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="D77:L77"/>
+    <mergeCell ref="D78:L78"/>
+    <mergeCell ref="D79:L79"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="D74:L74"/>
+    <mergeCell ref="D75:L75"/>
+    <mergeCell ref="D76:L76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B49:C52"/>
     <mergeCell ref="D49:L49"/>
     <mergeCell ref="D50:L52"/>
@@ -4196,19 +4331,39 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B42:C45"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D43:L45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D56:L56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L23"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="D57:L57"/>
     <mergeCell ref="D58:L58"/>
@@ -4217,34 +4372,6 @@
     <mergeCell ref="D61:L61"/>
     <mergeCell ref="D62:L62"/>
     <mergeCell ref="D63:L63"/>
-    <mergeCell ref="D64:L64"/>
-    <mergeCell ref="D65:L65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:L66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="D68:L68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:L69"/>
-    <mergeCell ref="D70:L70"/>
-    <mergeCell ref="D71:L71"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="D77:L77"/>
-    <mergeCell ref="D78:L78"/>
-    <mergeCell ref="D79:L79"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D72:L72"/>
-    <mergeCell ref="D73:L73"/>
-    <mergeCell ref="D74:L74"/>
-    <mergeCell ref="D75:L75"/>
-    <mergeCell ref="D76:L76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/Rich/fxcheck_201308.xlsx
+++ b/Rich/fxcheck_201308.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="9675" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="9675" windowHeight="6705" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="周(0812~0816)" sheetId="19" r:id="rId1"/>
-    <sheet name="日(0815)" sheetId="20" r:id="rId2"/>
+    <sheet name="周(0814)" sheetId="19" r:id="rId1"/>
+    <sheet name="周(816)" sheetId="21" r:id="rId2"/>
+    <sheet name="日(0815)" sheetId="20" r:id="rId3"/>
+    <sheet name="日(816)" sheetId="22" r:id="rId4"/>
+    <sheet name="日(819)" sheetId="23" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="103">
   <si>
     <t>均线系统客观方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +395,31 @@
   <si>
     <t>目前EUR已经走出次要节奏，CHF回撤力度稍大；JPY也有次要节奏，但回撤向下破了M55，需要注意进一步回撤的可能。
 EUR为首选货币，其它考虑CHF和JPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元以横盘为主，D1图在经历较大幅度上涨后，昨日又大幅下跌，但还在横盘区间内。现在开始出现下跌连续性，但区间内无主次，且下面不远处就是一个较强的支撑位80.44。所以暂时观望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日各货币对相比前几天的下跌都出现了较大幅度的上涨，与前几天的下跌刚好形成次要节奏，开始有向上的连续性。但仍在横盘区间内，暂时观望为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观望为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元客观方向仍然牌横盘阶段，主观方向为横盘内向下，离下方80.442的阻力位只有60几点的空间。不适合做交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲货币和贵金属开始进入上升阶段，其中黄金已经走出向上的连续性，可以考虑在下次走出次要节奏后入场轻仓做多。
+日元和商品货币仍然处于横盘整理中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金可以在出现次要节奏后轻仓做多；英镑已经有向上的次要节奏，但距离上方阻力位不远，暂时观望；其它货币对均以横盘为主没有合适的交易机会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,16 +753,25 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -742,15 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -761,14 +789,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -776,20 +801,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -800,14 +822,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,21 +1161,21 @@
       <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="16">
         <v>41500.993750000001</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="23" t="s">
@@ -1160,8 +1194,8 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1211,8 +1245,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1284,8 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1289,8 +1323,8 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="14"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
@@ -1338,8 +1372,8 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="14"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,8 +1411,8 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1416,8 +1450,8 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
@@ -1465,8 +1499,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="14"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1538,8 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1543,406 +1577,406 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="18" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="14"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="21" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="18" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="21" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="18" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="14"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="14"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="14"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="14"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="23" t="s">
@@ -1961,13 +1995,13 @@
       <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="3" t="s">
         <v>48</v>
       </c>
@@ -1985,11 +2019,11 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="14"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2001,11 +2035,11 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="14"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2017,71 +2051,71 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="14"/>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="14"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="14"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="14"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="14"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2099,11 +2133,11 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="14"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2115,11 +2149,11 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="14"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2131,292 +2165,292 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="14"/>
-      <c r="B49" s="29" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="14"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="14"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="14"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="19"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="17"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="17"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="17"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="30"/>
-      <c r="B56" s="32" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="17"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="17"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="17"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="17"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="17"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="17"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="17"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="17"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="17"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="17"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="17"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="23" t="s">
@@ -2435,205 +2469,291 @@
       <c r="L67" s="25"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="17"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="30"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="17"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="30"/>
-      <c r="B70" s="32" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="17"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="30"/>
-      <c r="B71" s="32" t="s">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="17"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="17"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="30"/>
-      <c r="B73" s="32" t="s">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="17"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="30"/>
-      <c r="B74" s="32" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="17"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="30"/>
-      <c r="B75" s="32" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="17"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="30"/>
-      <c r="B76" s="32" t="s">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="17"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="17"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="30"/>
-      <c r="B78" s="32" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="17"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="33"/>
     </row>
     <row r="79" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A79" s="35"/>
-      <c r="B79" s="36" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="38"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:L33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C52"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:L60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:L61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:L62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:L74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:L75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:L76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:L77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:L78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:L79"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="D16:L16"/>
@@ -2646,6 +2766,1548 @@
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="B3:B23"/>
     <mergeCell ref="C12:C23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:L48 D11:Q11 D41:L41 D5:Q5 D8:Q8">
+      <formula1>"上,下,区间内向上,区间内向下,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:L47 D10:Q10 D40:L40 D4:Q4 D7:Q7">
+      <formula1>"上,下,横盘,转换"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16">
+        <f ca="1">NOW()</f>
+        <v>41505.317213425929</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="26"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="26"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="26"/>
+      <c r="B27" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="26"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="26"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="26"/>
+      <c r="B30" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="26"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="26"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="26"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="26"/>
+      <c r="B40" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="26"/>
+      <c r="B41" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="26"/>
+      <c r="B46" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="26"/>
+      <c r="B47" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="26"/>
+      <c r="B48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="38"/>
+      <c r="B58" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="38"/>
+      <c r="B59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="38"/>
+      <c r="B60" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="38"/>
+      <c r="B61" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="38"/>
+      <c r="B62" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="38"/>
+      <c r="B63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="38"/>
+      <c r="B64" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="38"/>
+      <c r="B65" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="38"/>
+      <c r="B66" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="33"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="29"/>
+      <c r="B74" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="29"/>
+      <c r="B75" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="33"/>
+    </row>
+    <row r="79" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="D77:L77"/>
@@ -2732,14 +4394,26 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:L34"/>
     <mergeCell ref="C35:L37"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:L47 D10:Q10 D40:L40 D4:Q4 D7:Q7">
+      <formula1>"上,下,横盘,转换"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:L48 D11:Q11 D41:L41 D5:Q5 D8:Q8">
       <formula1>"上,下,区间内向上,区间内向下,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:L47 D10:Q10 D40:L40 D4:Q4 D7:Q7">
-      <formula1>"上,下,横盘,转换"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2747,7 +4421,3286 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16">
+        <v>41500.993750000001</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="26"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="26"/>
+      <c r="B27" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="26"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="26"/>
+      <c r="B30" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="26"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="26"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="26"/>
+      <c r="B40" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="26"/>
+      <c r="B46" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="26"/>
+      <c r="B47" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="26"/>
+      <c r="B48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
+    </row>
+    <row r="55" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A58" s="38"/>
+      <c r="B58" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A59" s="38"/>
+      <c r="B59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A60" s="38"/>
+      <c r="B60" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A61" s="38"/>
+      <c r="B61" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A62" s="38"/>
+      <c r="B62" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A63" s="38"/>
+      <c r="B63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A64" s="38"/>
+      <c r="B64" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A65" s="38"/>
+      <c r="B65" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A66" s="38"/>
+      <c r="B66" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A67" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A68" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
+    </row>
+    <row r="70" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="33"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
+    </row>
+    <row r="74" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A74" s="29"/>
+      <c r="B74" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
+    </row>
+    <row r="75" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A75" s="29"/>
+      <c r="B75" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
+    </row>
+    <row r="76" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33"/>
+    </row>
+    <row r="77" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A77" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="33"/>
+    </row>
+    <row r="79" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+    </row>
+    <row r="80" spans="1:12" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="D62:L62"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="D60:L60"/>
+    <mergeCell ref="D61:L61"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L23"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:L33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C52"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="D77:L77"/>
+    <mergeCell ref="D78:L78"/>
+    <mergeCell ref="D79:L79"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="D74:L74"/>
+    <mergeCell ref="D75:L75"/>
+    <mergeCell ref="D76:L76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:L47 D10:Q10 D7:Q7 D4:Q4 D40:L40">
+      <formula1>"上,下,横盘,转换"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:L48 D11:Q11 D8:Q8 D5:Q5 D41:L41">
+      <formula1>"上,下,区间内向上,区间内向下,无"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16">
+        <f ca="1">NOW()</f>
+        <v>41505.317213425929</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="26"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="26"/>
+      <c r="B27" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="26"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="26"/>
+      <c r="B30" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="26"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="26"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="26"/>
+      <c r="B40" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="26"/>
+      <c r="B46" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="26"/>
+      <c r="B47" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="26"/>
+      <c r="B48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
+    </row>
+    <row r="55" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A58" s="38"/>
+      <c r="B58" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A59" s="38"/>
+      <c r="B59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A60" s="38"/>
+      <c r="B60" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A61" s="38"/>
+      <c r="B61" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A62" s="38"/>
+      <c r="B62" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A63" s="38"/>
+      <c r="B63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A64" s="38"/>
+      <c r="B64" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A65" s="38"/>
+      <c r="B65" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A66" s="38"/>
+      <c r="B66" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A67" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A68" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
+    </row>
+    <row r="70" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="33"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
+    </row>
+    <row r="74" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A74" s="29"/>
+      <c r="B74" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
+    </row>
+    <row r="75" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A75" s="29"/>
+      <c r="B75" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
+    </row>
+    <row r="76" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33"/>
+    </row>
+    <row r="77" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A77" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="33"/>
+    </row>
+    <row r="79" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+    </row>
+    <row r="80" spans="1:12" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:L77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:L78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:L79"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:L72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:L73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:L74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:L75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:L76"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:L68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:L69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:L70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:L65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:L60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:L61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:L62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C52"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:L33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L37"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:L48 D11:Q11 D8:Q8 D5:Q5 D41:L41">
+      <formula1>"上,下,区间内向上,区间内向下,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47:L47 D10:Q10 D7:Q7 D4:Q4 D40:L40">
+      <formula1>"上,下,横盘,转换"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
@@ -2766,21 +7719,22 @@
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="39">
-        <v>41500.993750000001</v>
-      </c>
-      <c r="C1" s="40"/>
+      <c r="B1" s="16">
+        <f ca="1">NOW()</f>
+        <v>41505.317213425929</v>
+      </c>
+      <c r="C1" s="17"/>
       <c r="D1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="23" t="s">
@@ -2799,11 +7753,11 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2850,8 +7804,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,25 +7843,25 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>84</v>
@@ -2928,9 +7882,9 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="14"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2977,25 +7931,25 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="14"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>80</v>
@@ -3004,7 +7958,7 @@
         <v>80</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>86</v>
@@ -3016,31 +7970,31 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>86</v>
@@ -3055,9 +8009,9 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3104,25 +8058,25 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="14"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>80</v>
@@ -3143,31 +8097,31 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>81</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>86</v>
@@ -3182,406 +8136,406 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="14"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="21" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="21" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="14"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="14"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="14"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="23" t="s">
@@ -3600,15 +8554,15 @@
       <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>77</v>
@@ -3624,11 +8578,11 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="14"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -3640,11 +8594,11 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3656,73 +8610,73 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="14"/>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="14"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="14"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="14"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>77</v>
@@ -3738,11 +8692,11 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="14"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3754,11 +8708,11 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="14"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3770,292 +8724,292 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="14"/>
-      <c r="B49" s="29" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="14"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="14"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="19"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="17"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="17"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
     </row>
     <row r="55" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="17"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="32" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="17"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="17"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="17"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="17"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="17"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="17"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
     </row>
     <row r="62" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="17"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="17"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
     </row>
     <row r="64" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="17"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
     </row>
     <row r="65" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="17"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
     </row>
     <row r="66" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="17"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
     </row>
     <row r="67" spans="1:12" ht="13.5" customHeight="1">
       <c r="A67" s="23" t="s">
@@ -4074,263 +9028,286 @@
       <c r="L67" s="25"/>
     </row>
     <row r="68" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="17"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="33"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="30"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="17"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
     </row>
     <row r="70" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="32" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="17"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="30"/>
-      <c r="B71" s="32" t="s">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="17"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="17"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="30"/>
-      <c r="B73" s="32" t="s">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="17"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
     </row>
     <row r="74" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="32" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="17"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="33"/>
     </row>
     <row r="75" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="32" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="17"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
     </row>
     <row r="76" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="32" t="s">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="17"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33"/>
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="17"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="30"/>
-      <c r="B78" s="32" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="17"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="33"/>
     </row>
     <row r="79" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A79" s="35"/>
-      <c r="B79" s="36" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="38"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
     </row>
     <row r="80" spans="1:12" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="D75:L75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:L76"/>
     <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="D77:L77"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:L78"/>
+    <mergeCell ref="B79:C79"/>
     <mergeCell ref="D79:L79"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:L71"/>
     <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:L72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:L73"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="D74:L74"/>
-    <mergeCell ref="D75:L75"/>
-    <mergeCell ref="D76:L76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="A67:L67"/>
     <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:L68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:L69"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:L70"/>
-    <mergeCell ref="D71:L71"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:L64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:L65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:L66"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D43:L45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:L60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:L61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:L62"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:L57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C52"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D50:L52"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:L53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D56:L56"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B49:C52"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="D29:L29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:L33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:L34"/>
     <mergeCell ref="C35:L37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C45"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L23"/>
     <mergeCell ref="A24:A37"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="D24:L24"/>
@@ -4349,29 +9326,6 @@
     <mergeCell ref="D13:L15"/>
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="D17:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L23"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="D57:L57"/>
-    <mergeCell ref="D58:L58"/>
-    <mergeCell ref="D59:L59"/>
-    <mergeCell ref="D60:L60"/>
-    <mergeCell ref="D61:L61"/>
-    <mergeCell ref="D62:L62"/>
-    <mergeCell ref="D63:L63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
